--- a/data_excel/data_tables/excels/X-象棋表.xlsx
+++ b/data_excel/data_tables/excels/X-象棋表.xlsx
@@ -1028,20 +1028,22 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="5.875" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="6.125" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="5.75" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/data_excel/data_tables/excels/X-象棋表.xlsx
+++ b/data_excel/data_tables/excels/X-象棋表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="玩法参数表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="段位表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +92,168 @@
   </si>
   <si>
     <t>中国象棋_10分钟场</t>
+  </si>
+  <si>
+    <t>rank_id</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>rank_name</t>
+  </si>
+  <si>
+    <t>need_score</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>段位ID</t>
+  </si>
+  <si>
+    <t>段位等级</t>
+  </si>
+  <si>
+    <t>段位名称</t>
+  </si>
+  <si>
+    <t>目标分数</t>
+  </si>
+  <si>
+    <t>学1-1</t>
+  </si>
+  <si>
+    <t>学1-2</t>
+  </si>
+  <si>
+    <t>学1-3</t>
+  </si>
+  <si>
+    <t>学2-1</t>
+  </si>
+  <si>
+    <t>学2-2</t>
+  </si>
+  <si>
+    <t>学2-3</t>
+  </si>
+  <si>
+    <t>学3-1</t>
+  </si>
+  <si>
+    <t>学3-2</t>
+  </si>
+  <si>
+    <t>学3-3</t>
+  </si>
+  <si>
+    <t>业1-1</t>
+  </si>
+  <si>
+    <t>业1-2</t>
+  </si>
+  <si>
+    <t>业1-3</t>
+  </si>
+  <si>
+    <t>业2-1</t>
+  </si>
+  <si>
+    <t>业2-2</t>
+  </si>
+  <si>
+    <t>业2-3</t>
+  </si>
+  <si>
+    <t>业3-1</t>
+  </si>
+  <si>
+    <t>业3-2</t>
+  </si>
+  <si>
+    <t>业3-3</t>
+  </si>
+  <si>
+    <t>业4-1</t>
+  </si>
+  <si>
+    <t>业4-2</t>
+  </si>
+  <si>
+    <t>业4-3</t>
+  </si>
+  <si>
+    <t>业5-1</t>
+  </si>
+  <si>
+    <t>业5-2</t>
+  </si>
+  <si>
+    <t>业5-3</t>
+  </si>
+  <si>
+    <t>业6-1</t>
+  </si>
+  <si>
+    <t>业6-2</t>
+  </si>
+  <si>
+    <t>业6-3</t>
+  </si>
+  <si>
+    <t>业7-1</t>
+  </si>
+  <si>
+    <t>业7-2</t>
+  </si>
+  <si>
+    <t>业7-3</t>
+  </si>
+  <si>
+    <t>业8-1</t>
+  </si>
+  <si>
+    <t>业8-2</t>
+  </si>
+  <si>
+    <t>业8-3</t>
+  </si>
+  <si>
+    <t>业9-1</t>
+  </si>
+  <si>
+    <t>业9-2</t>
+  </si>
+  <si>
+    <t>业9-3</t>
+  </si>
+  <si>
+    <t>专1-1</t>
+  </si>
+  <si>
+    <t>专1-2</t>
+  </si>
+  <si>
+    <t>专1-3</t>
+  </si>
+  <si>
+    <t>专2-1</t>
+  </si>
+  <si>
+    <t>专2-2</t>
+  </si>
+  <si>
+    <t>专2-3</t>
+  </si>
+  <si>
+    <t>专3-1</t>
+  </si>
+  <si>
+    <t>专3-2</t>
+  </si>
+  <si>
+    <t>专3-3</t>
   </si>
 </sst>
 </file>
@@ -707,8 +869,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1027,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1059,18 +1224,18 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -1085,31 +1250,31 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
@@ -1124,18 +1289,18 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" t="s">
@@ -1262,14 +1427,733 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="5.75" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:12">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" customFormat="1" spans="2:5">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:5">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:5">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49">
+        <v>3040</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data_excel/data_tables/excels/X-象棋表.xlsx
+++ b/data_excel/data_tables/excels/X-象棋表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="玩法参数表" sheetId="1" r:id="rId1"/>
     <sheet name="段位表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="通用参数表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -254,6 +254,51 @@
   </si>
   <si>
     <t>专3-3</t>
+  </si>
+  <si>
+    <t>##column#var</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>具体参数</t>
+  </si>
+  <si>
+    <t>init_score</t>
+  </si>
+  <si>
+    <t>初始分数</t>
+  </si>
+  <si>
+    <t>low_level_cond</t>
+  </si>
+  <si>
+    <t>低等级条件</t>
+  </si>
+  <si>
+    <t>win_add_score</t>
+  </si>
+  <si>
+    <t>赢加分</t>
+  </si>
+  <si>
+    <t>lose_reduce_score</t>
+  </si>
+  <si>
+    <t>输减分</t>
+  </si>
+  <si>
+    <t>low_win_add_score</t>
+  </si>
+  <si>
+    <t>低等级赢加分</t>
+  </si>
+  <si>
+    <t>low_lose_reduce_score</t>
+  </si>
+  <si>
+    <t>低等级输减分</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1474,7 @@
   <sheetPr/>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28:B49"/>
     </sheetView>
   </sheetViews>
@@ -2163,14 +2208,122 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data_excel/data_tables/excels/X-象棋表.xlsx
+++ b/data_excel/data_tables/excels/X-象棋表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="玩法参数表" sheetId="1" r:id="rId1"/>
@@ -82,10 +82,10 @@
     <t>中国象棋_排位赛</t>
   </si>
   <si>
-    <t>道具ID_经验</t>
-  </si>
-  <si>
-    <t>道具ID_银币</t>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>银币</t>
   </si>
   <si>
     <t>中国象棋_5分钟场</t>
@@ -1237,13 +1237,13 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -1474,7 +1474,7 @@
   <sheetPr/>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:B49"/>
     </sheetView>
   </sheetViews>
@@ -2210,7 +2210,7 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
